--- a/中国电信运营数据.xlsx
+++ b/中国电信运营数据.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhufeng\Desktop\股票分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789CA1D-7002-44C4-99C9-0A11886549F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -115,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -213,7 +212,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[新建 Microsoft Excel 工作表.xlsx]Sheet3!数据透视表2</c:name>
+    <c:name>[中国电信运营数据.xlsx]Sheet3!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -438,7 +437,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -491,7 +490,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -544,7 +543,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -597,7 +596,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -650,7 +649,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -703,7 +702,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -758,7 +757,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -813,7 +812,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -868,7 +867,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -923,7 +922,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -978,7 +977,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-84BA-4CC6-AC94-73410B07F0CF}"/>
             </c:ext>
@@ -994,11 +993,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2065417247"/>
-        <c:axId val="625993935"/>
+        <c:axId val="1339502720"/>
+        <c:axId val="1339497280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2065417247"/>
+        <c:axId val="1339502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625993935"/>
+        <c:crossAx val="1339497280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625993935"/>
+        <c:axId val="1339497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065417247"/>
+        <c:crossAx val="1339502720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,14 +1144,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1184,7 +1183,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1194,17 +1198,12 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1218,6 +1217,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1322,7 +1322,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1EBD-47CB-850A-FF7E50ECCCF9}"/>
             </c:ext>
@@ -1397,7 +1397,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1EBD-47CB-850A-FF7E50ECCCF9}"/>
             </c:ext>
@@ -1472,7 +1472,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1EBD-47CB-850A-FF7E50ECCCF9}"/>
             </c:ext>
@@ -1547,7 +1547,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1EBD-47CB-850A-FF7E50ECCCF9}"/>
             </c:ext>
@@ -1562,11 +1562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="417254991"/>
-        <c:axId val="790504911"/>
+        <c:axId val="1339490752"/>
+        <c:axId val="1339495104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417254991"/>
+        <c:axId val="1339490752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="790504911"/>
+        <c:crossAx val="1339495104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="790504911"/>
+        <c:axId val="1339495104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417254991"/>
+        <c:crossAx val="1339490752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1681,6 +1681,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1712,14 +1713,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2873,7 +2874,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3046F9D-8395-4987-B80D-FC196FC3DACC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3046F9D-8395-4987-B80D-FC196FC3DACC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2915,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F836F8D-6EB2-4CDE-915D-D0C50710678C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F836F8D-6EB2-4CDE-915D-D0C50710678C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2937,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="朱峰" refreshedDate="45405.917211805558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12" xr:uid="{95C9E00F-47A9-422F-9D3D-C17753BD932D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="朱峰" refreshedDate="45405.917211805558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:L14" sheet="Sheet1"/>
   </cacheSource>
@@ -3160,7 +3161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDE63A5A-79EA-4AA2-ADEE-F44E9CDA6DD8}" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:K2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3605,14 +3606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D99378-88A2-4C72-B3AC-162CBA853459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -3627,7 +3628,7 @@
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>101270</v>
       </c>
@@ -3705,27 +3706,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="7">
         <v>45017</v>
@@ -3760,8 +3762,11 @@
       <c r="L2" s="7">
         <v>45352</v>
       </c>
+      <c r="M2" s="7">
+        <v>45383</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3798,8 +3803,11 @@
       <c r="L3" s="2">
         <v>41165</v>
       </c>
+      <c r="M3" s="4">
+        <v>41345</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="17.399999999999999">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,8 +3844,11 @@
       <c r="L4" s="4">
         <v>191</v>
       </c>
+      <c r="M4" s="4">
+        <v>180</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3872,8 +3883,11 @@
       <c r="L5" s="4">
         <v>388</v>
       </c>
+      <c r="M5" s="4">
+        <v>568</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3910,8 +3924,11 @@
       <c r="L6" s="2">
         <v>32872</v>
       </c>
+      <c r="M6" s="4">
+        <v>33162</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3948,8 +3965,11 @@
       <c r="L7" s="4">
         <v>466</v>
       </c>
+      <c r="M7" s="4">
+        <v>290</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3984,8 +4004,11 @@
       <c r="L8" s="2">
         <v>1006</v>
       </c>
+      <c r="M8" s="4">
+        <v>1296</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -4022,8 +4045,11 @@
       <c r="L9" s="2">
         <v>19222</v>
       </c>
+      <c r="M9" s="4">
+        <v>19230</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.399999999999999">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4060,8 +4086,11 @@
       <c r="L10" s="4">
         <v>59</v>
       </c>
+      <c r="M10" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17.399999999999999">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4096,8 +4125,11 @@
       <c r="L11" s="4">
         <v>206</v>
       </c>
+      <c r="M11" s="4">
+        <v>214</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -4134,8 +4166,11 @@
       <c r="L12" s="2">
         <v>10026</v>
       </c>
+      <c r="M12" s="4">
+        <v>9981</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -4172,8 +4207,11 @@
       <c r="L13" s="4">
         <v>-30</v>
       </c>
+      <c r="M13" s="4">
+        <v>-45</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -4207,6 +4245,9 @@
       </c>
       <c r="L14" s="4">
         <v>-76</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-121</v>
       </c>
     </row>
   </sheetData>

--- a/中国电信运营数据.xlsx
+++ b/中国电信运营数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhufeng\Desktop\股票分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\朱锦涛资产\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6FCDF-870F-417E-AEC4-8A6B886D3668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电信" sheetId="1" r:id="rId1"/>
@@ -168,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,11 +280,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,14 +565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
@@ -587,12 +588,12 @@
     <col min="14" max="14" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -600,29 +601,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="31.2">
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -663,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45017</v>
       </c>
@@ -704,7 +705,7 @@
         <v>-131</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45047</v>
       </c>
@@ -745,7 +746,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45078</v>
       </c>
@@ -786,7 +787,7 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45108</v>
       </c>
@@ -827,7 +828,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45139</v>
       </c>
@@ -868,7 +869,7 @@
         <v>-252</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45200</v>
       </c>
@@ -909,7 +910,7 @@
         <v>-321</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45231</v>
       </c>
@@ -950,7 +951,7 @@
         <v>-362</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45261</v>
       </c>
@@ -991,7 +992,7 @@
         <v>-393</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45292</v>
       </c>
@@ -1024,7 +1025,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45323</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45352</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45383</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45413</v>
       </c>
@@ -1188,29 +1189,70 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>45445</v>
+      </c>
+      <c r="B18" s="10">
+        <v>41685</v>
+      </c>
+      <c r="C18" s="10">
+        <v>147</v>
+      </c>
+      <c r="D18" s="10">
+        <v>908</v>
+      </c>
+      <c r="E18" s="10">
+        <v>33663</v>
+      </c>
+      <c r="F18" s="10">
+        <v>237</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1797</v>
+      </c>
+      <c r="H18" s="10">
+        <v>19335</v>
+      </c>
+      <c r="I18" s="10">
+        <v>51</v>
+      </c>
+      <c r="J18" s="10">
+        <v>319</v>
+      </c>
+      <c r="K18" s="10">
+        <v>9916</v>
+      </c>
+      <c r="L18" s="10">
+        <v>-26</v>
+      </c>
+      <c r="M18" s="10">
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1225,14 +1267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1244,12 +1286,12 @@
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1257,21 +1299,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="25.8" customHeight="1">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45047</v>
       </c>
@@ -1323,7 +1365,7 @@
         <v>1227.5999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45079</v>
       </c>
@@ -1349,7 +1391,7 @@
         <v>1423.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45108</v>
       </c>
@@ -1375,7 +1417,7 @@
         <v>1600.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45139</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45170</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>2251.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45200</v>
       </c>
@@ -1453,7 +1495,7 @@
         <v>2421.1999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45231</v>
       </c>
@@ -1479,7 +1521,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45261</v>
       </c>
@@ -1505,7 +1547,7 @@
         <v>2607.8000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45292</v>
       </c>
@@ -1531,7 +1573,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45323</v>
       </c>
@@ -1557,7 +1599,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45353</v>
       </c>
@@ -1583,7 +1625,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45384</v>
       </c>
@@ -1609,7 +1651,7 @@
         <v>815.7</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45413</v>
       </c>
@@ -1635,17 +1677,33 @@
         <v>927.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>45445</v>
+      </c>
+      <c r="B18" s="12">
+        <v>100025.60000000001</v>
+      </c>
+      <c r="C18" s="12">
+        <v>181.6</v>
+      </c>
+      <c r="D18" s="12">
+        <v>925.6</v>
+      </c>
+      <c r="E18" s="12">
+        <v>51421.8</v>
+      </c>
+      <c r="F18" s="12">
+        <v>30917.200000000001</v>
+      </c>
+      <c r="G18" s="12">
+        <v>165.1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1092.5999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1655,7 +1713,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1665,7 +1723,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1675,7 +1733,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1685,7 +1743,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1695,7 +1753,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1704,7 +1762,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1713,7 +1771,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/中国电信运营数据.xlsx
+++ b/中国电信运营数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\朱锦涛资产\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6FCDF-870F-417E-AEC4-8A6B886D3668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141CD1B-600C-40B4-ABDF-C06E442BA7C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电信" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>移动用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>中国移动运营数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 9874</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1235,45 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="7">
+        <v>45475</v>
+      </c>
+      <c r="B19" s="10">
+        <v>41906</v>
+      </c>
+      <c r="C19" s="10">
+        <v>221</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1129</v>
+      </c>
+      <c r="E19" s="10">
+        <v>33975</v>
+      </c>
+      <c r="F19" s="10">
+        <v>312</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2109</v>
+      </c>
+      <c r="H19" s="10">
+        <v>19431</v>
+      </c>
+      <c r="I19" s="10">
+        <v>96</v>
+      </c>
+      <c r="J19" s="10">
+        <v>415</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="10">
+        <v>-42</v>
+      </c>
+      <c r="M19" s="10">
+        <v>-228</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1270,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1704,14 +1746,30 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="7">
+        <v>45476</v>
+      </c>
+      <c r="B19" s="12">
+        <v>100081.5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>55.9</v>
+      </c>
+      <c r="D19" s="12">
+        <v>981.5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>52795.6</v>
+      </c>
+      <c r="F19" s="12">
+        <v>30920.5</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1095.9000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1787,6 +1845,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>